--- a/CumulativeTestsByTypeByCounty/2021-12-10.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-12-10.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>77258</v>
+        <v>77305</v>
       </c>
       <c r="C2" s="4">
-        <v>1949</v>
+        <v>1954</v>
       </c>
       <c r="D2" s="4">
-        <v>33820</v>
+        <v>33931</v>
       </c>
       <c r="E2" s="4">
-        <v>113027</v>
+        <v>113190</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>5586</v>
+        <v>5590</v>
       </c>
       <c r="C3" s="4">
         <v>319</v>
       </c>
       <c r="D3" s="4">
-        <v>5409</v>
+        <v>5497</v>
       </c>
       <c r="E3" s="4">
-        <v>11314</v>
+        <v>11406</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>78671</v>
+        <v>78727</v>
       </c>
       <c r="C4" s="4">
-        <v>4234</v>
+        <v>4242</v>
       </c>
       <c r="D4" s="4">
-        <v>71692</v>
+        <v>71809</v>
       </c>
       <c r="E4" s="4">
-        <v>154597</v>
+        <v>154778</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>15549</v>
+        <v>15572</v>
       </c>
       <c r="C5" s="4">
-        <v>2815</v>
+        <v>2819</v>
       </c>
       <c r="D5" s="4">
-        <v>12792</v>
+        <v>12813</v>
       </c>
       <c r="E5" s="4">
-        <v>31156</v>
+        <v>31204</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>4350</v>
+        <v>4357</v>
       </c>
       <c r="C6" s="4">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D6" s="4">
-        <v>1529</v>
+        <v>1542</v>
       </c>
       <c r="E6" s="4">
-        <v>6642</v>
+        <v>6664</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,16 +1156,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="C7" s="4">
         <v>327</v>
       </c>
       <c r="D7" s="4">
-        <v>1344</v>
+        <v>1391</v>
       </c>
       <c r="E7" s="4">
-        <v>2697</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>102709</v>
+        <v>103601</v>
       </c>
       <c r="C8" s="4">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D8" s="4">
-        <v>13893</v>
+        <v>13948</v>
       </c>
       <c r="E8" s="4">
-        <v>118029</v>
+        <v>118977</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>28268</v>
+        <v>28325</v>
       </c>
       <c r="C9" s="4">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="D9" s="4">
-        <v>5112</v>
+        <v>5131</v>
       </c>
       <c r="E9" s="4">
-        <v>35208</v>
+        <v>35285</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>2537</v>
+        <v>2545</v>
       </c>
       <c r="C10" s="4">
         <v>93</v>
       </c>
       <c r="D10" s="4">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="E10" s="4">
-        <v>4052</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>13925</v>
+        <v>13947</v>
       </c>
       <c r="C11" s="4">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="D11" s="4">
-        <v>8067</v>
+        <v>8106</v>
       </c>
       <c r="E11" s="4">
-        <v>22755</v>
+        <v>22821</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>91706</v>
+        <v>91875</v>
       </c>
       <c r="C12" s="4">
-        <v>2217</v>
+        <v>2229</v>
       </c>
       <c r="D12" s="4">
-        <v>41086</v>
+        <v>41185</v>
       </c>
       <c r="E12" s="4">
-        <v>135009</v>
+        <v>135289</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1258,16 +1258,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>2075</v>
+        <v>2078</v>
       </c>
       <c r="C13" s="4">
         <v>463</v>
       </c>
       <c r="D13" s="4">
-        <v>3660</v>
+        <v>3669</v>
       </c>
       <c r="E13" s="4">
-        <v>6198</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>52202</v>
+        <v>52242</v>
       </c>
       <c r="C14" s="4">
-        <v>7931</v>
+        <v>7935</v>
       </c>
       <c r="D14" s="4">
-        <v>21416</v>
+        <v>21640</v>
       </c>
       <c r="E14" s="4">
-        <v>81549</v>
+        <v>81817</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>397529</v>
+        <v>398126</v>
       </c>
       <c r="C15" s="4">
-        <v>15366</v>
+        <v>15383</v>
       </c>
       <c r="D15" s="4">
-        <v>84917</v>
+        <v>85180</v>
       </c>
       <c r="E15" s="4">
-        <v>497812</v>
+        <v>498689</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>4032790</v>
+        <v>4040498</v>
       </c>
       <c r="C16" s="4">
-        <v>72118</v>
+        <v>72281</v>
       </c>
       <c r="D16" s="4">
-        <v>575779</v>
+        <v>578966</v>
       </c>
       <c r="E16" s="4">
-        <v>4680687</v>
+        <v>4691745</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>9082</v>
+        <v>9098</v>
       </c>
       <c r="C17" s="4">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D17" s="4">
-        <v>3174</v>
+        <v>3190</v>
       </c>
       <c r="E17" s="4">
-        <v>12717</v>
+        <v>12754</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>11990</v>
+        <v>12001</v>
       </c>
       <c r="C19" s="4">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D19" s="4">
-        <v>8853</v>
+        <v>8878</v>
       </c>
       <c r="E19" s="4">
-        <v>21407</v>
+        <v>21445</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>87437</v>
+        <v>87531</v>
       </c>
       <c r="C20" s="4">
-        <v>10533</v>
+        <v>10543</v>
       </c>
       <c r="D20" s="4">
-        <v>34146</v>
+        <v>34270</v>
       </c>
       <c r="E20" s="4">
-        <v>132116</v>
+        <v>132344</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>547551</v>
+        <v>548666</v>
       </c>
       <c r="C21" s="4">
-        <v>25337</v>
+        <v>25366</v>
       </c>
       <c r="D21" s="4">
-        <v>108045</v>
+        <v>108379</v>
       </c>
       <c r="E21" s="4">
-        <v>680933</v>
+        <v>682411</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>424648</v>
+        <v>425309</v>
       </c>
       <c r="C22" s="4">
-        <v>12040</v>
+        <v>12078</v>
       </c>
       <c r="D22" s="4">
-        <v>48203</v>
+        <v>48414</v>
       </c>
       <c r="E22" s="4">
-        <v>484891</v>
+        <v>485801</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>9295</v>
+        <v>9304</v>
       </c>
       <c r="C23" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D23" s="4">
-        <v>3439</v>
+        <v>3452</v>
       </c>
       <c r="E23" s="4">
-        <v>12905</v>
+        <v>12928</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,7 +1445,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>1240</v>
+        <v>1245</v>
       </c>
       <c r="C24" s="4">
         <v>141</v>
@@ -1454,7 +1454,7 @@
         <v>186</v>
       </c>
       <c r="E24" s="4">
-        <v>1567</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>25294</v>
+        <v>25302</v>
       </c>
       <c r="C25" s="4">
         <v>1841</v>
       </c>
       <c r="D25" s="4">
-        <v>6572</v>
+        <v>6581</v>
       </c>
       <c r="E25" s="4">
-        <v>33707</v>
+        <v>33724</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>25741</v>
+        <v>25774</v>
       </c>
       <c r="C26" s="4">
         <v>1243</v>
       </c>
       <c r="D26" s="4">
-        <v>41308</v>
+        <v>41374</v>
       </c>
       <c r="E26" s="4">
-        <v>68292</v>
+        <v>68391</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>24947</v>
+        <v>24979</v>
       </c>
       <c r="C27" s="4">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D27" s="4">
-        <v>6609</v>
+        <v>6630</v>
       </c>
       <c r="E27" s="4">
-        <v>32346</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>56886</v>
+        <v>56990</v>
       </c>
       <c r="C28" s="4">
-        <v>2113</v>
+        <v>2136</v>
       </c>
       <c r="D28" s="4">
-        <v>12957</v>
+        <v>13010</v>
       </c>
       <c r="E28" s="4">
-        <v>71956</v>
+        <v>72136</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>57177</v>
+        <v>57294</v>
       </c>
       <c r="C29" s="4">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="D29" s="4">
-        <v>17118</v>
+        <v>17153</v>
       </c>
       <c r="E29" s="4">
-        <v>76407</v>
+        <v>76561</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>20007</v>
+        <v>20022</v>
       </c>
       <c r="C30" s="4">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="D30" s="4">
-        <v>13670</v>
+        <v>13695</v>
       </c>
       <c r="E30" s="4">
-        <v>35802</v>
+        <v>35845</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>6992</v>
+        <v>6995</v>
       </c>
       <c r="C31" s="4">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D31" s="4">
-        <v>10837</v>
+        <v>10858</v>
       </c>
       <c r="E31" s="4">
-        <v>18156</v>
+        <v>18182</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>418554</v>
+        <v>419151</v>
       </c>
       <c r="C32" s="4">
-        <v>10937</v>
+        <v>10950</v>
       </c>
       <c r="D32" s="4">
-        <v>142706</v>
+        <v>143206</v>
       </c>
       <c r="E32" s="4">
-        <v>572197</v>
+        <v>573307</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>9130</v>
+        <v>9164</v>
       </c>
       <c r="C33" s="4">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D33" s="4">
-        <v>3872</v>
+        <v>3882</v>
       </c>
       <c r="E33" s="4">
-        <v>13534</v>
+        <v>13580</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>2792</v>
+        <v>2800</v>
       </c>
       <c r="C34" s="4">
         <v>1103</v>
       </c>
       <c r="D34" s="4">
-        <v>1360</v>
+        <v>1367</v>
       </c>
       <c r="E34" s="4">
-        <v>5255</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>18499</v>
+        <v>18536</v>
       </c>
       <c r="C35" s="4">
-        <v>3345</v>
+        <v>3347</v>
       </c>
       <c r="D35" s="4">
-        <v>11716</v>
+        <v>11764</v>
       </c>
       <c r="E35" s="4">
-        <v>33560</v>
+        <v>33647</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>7181</v>
+        <v>7222</v>
       </c>
       <c r="C36" s="4">
         <v>408</v>
       </c>
       <c r="D36" s="4">
-        <v>3361</v>
+        <v>3366</v>
       </c>
       <c r="E36" s="4">
-        <v>10950</v>
+        <v>10996</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>13824</v>
+        <v>13848</v>
       </c>
       <c r="C37" s="4">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="D37" s="4">
-        <v>3318</v>
+        <v>3332</v>
       </c>
       <c r="E37" s="4">
-        <v>18029</v>
+        <v>18070</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>36869</v>
+        <v>36902</v>
       </c>
       <c r="C38" s="4">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D38" s="4">
-        <v>27910</v>
+        <v>28019</v>
       </c>
       <c r="E38" s="4">
-        <v>65978</v>
+        <v>66121</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>6386</v>
+        <v>6469</v>
       </c>
       <c r="C39" s="4">
         <v>442</v>
       </c>
       <c r="D39" s="4">
-        <v>6369</v>
+        <v>6379</v>
       </c>
       <c r="E39" s="4">
-        <v>13197</v>
+        <v>13290</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>6474</v>
+        <v>6486</v>
       </c>
       <c r="C40" s="4">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D40" s="4">
-        <v>4881</v>
+        <v>4893</v>
       </c>
       <c r="E40" s="4">
-        <v>12009</v>
+        <v>12034</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,16 +1734,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>1570</v>
+        <v>1578</v>
       </c>
       <c r="C41" s="4">
         <v>29</v>
       </c>
       <c r="D41" s="4">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E41" s="4">
-        <v>2031</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="C42" s="4">
         <v>57</v>
       </c>
       <c r="D42" s="4">
-        <v>3293</v>
+        <v>3298</v>
       </c>
       <c r="E42" s="4">
-        <v>6256</v>
+        <v>6262</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>4368</v>
+        <v>4376</v>
       </c>
       <c r="C43" s="4">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D43" s="4">
-        <v>4921</v>
+        <v>4924</v>
       </c>
       <c r="E43" s="4">
-        <v>9451</v>
+        <v>9463</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>1517982</v>
+        <v>1521133</v>
       </c>
       <c r="C44" s="4">
-        <v>107612</v>
+        <v>107774</v>
       </c>
       <c r="D44" s="4">
-        <v>276790</v>
+        <v>277969</v>
       </c>
       <c r="E44" s="4">
-        <v>1902384</v>
+        <v>1906876</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,16 +1802,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="C45" s="4">
         <v>119</v>
       </c>
       <c r="D45" s="4">
-        <v>2697</v>
+        <v>2712</v>
       </c>
       <c r="E45" s="4">
-        <v>4606</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>18240</v>
+        <v>18280</v>
       </c>
       <c r="C46" s="4">
         <v>1199</v>
       </c>
       <c r="D46" s="4">
-        <v>9283</v>
+        <v>9303</v>
       </c>
       <c r="E46" s="4">
-        <v>28722</v>
+        <v>28782</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>180711</v>
+        <v>181097</v>
       </c>
       <c r="C47" s="4">
-        <v>11757</v>
+        <v>11803</v>
       </c>
       <c r="D47" s="4">
-        <v>49514</v>
+        <v>49665</v>
       </c>
       <c r="E47" s="4">
-        <v>241982</v>
+        <v>242565</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>10680</v>
+        <v>10702</v>
       </c>
       <c r="C48" s="4">
         <v>365</v>
       </c>
       <c r="D48" s="4">
-        <v>5691</v>
+        <v>5701</v>
       </c>
       <c r="E48" s="4">
-        <v>16736</v>
+        <v>16768</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="C49" s="4">
         <v>35</v>
       </c>
       <c r="D49" s="4">
-        <v>3903</v>
+        <v>3905</v>
       </c>
       <c r="E49" s="4">
-        <v>6084</v>
+        <v>6087</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>31585</v>
+        <v>31653</v>
       </c>
       <c r="C50" s="4">
-        <v>2138</v>
+        <v>2151</v>
       </c>
       <c r="D50" s="4">
-        <v>11713</v>
+        <v>11808</v>
       </c>
       <c r="E50" s="4">
-        <v>45436</v>
+        <v>45612</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>132559</v>
+        <v>132602</v>
       </c>
       <c r="C51" s="4">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="D51" s="4">
-        <v>24421</v>
+        <v>24503</v>
       </c>
       <c r="E51" s="4">
-        <v>159401</v>
+        <v>159527</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,16 +1921,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>1159</v>
+        <v>1169</v>
       </c>
       <c r="C52" s="4">
         <v>69</v>
       </c>
       <c r="D52" s="4">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="E52" s="4">
-        <v>2263</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>4914</v>
+        <v>4916</v>
       </c>
       <c r="C53" s="4">
         <v>95</v>
       </c>
       <c r="D53" s="4">
-        <v>3904</v>
+        <v>3907</v>
       </c>
       <c r="E53" s="4">
-        <v>8913</v>
+        <v>8918</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1955,16 +1955,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C54" s="4">
         <v>27</v>
       </c>
       <c r="D54" s="4">
-        <v>4313</v>
+        <v>4321</v>
       </c>
       <c r="E54" s="4">
-        <v>5512</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>3536</v>
+        <v>3547</v>
       </c>
       <c r="C55" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D55" s="4">
-        <v>3313</v>
+        <v>3333</v>
       </c>
       <c r="E55" s="4">
-        <v>6921</v>
+        <v>6953</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,16 +1989,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>2765</v>
+        <v>2767</v>
       </c>
       <c r="C56" s="4">
         <v>41</v>
       </c>
       <c r="D56" s="4">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E56" s="4">
-        <v>3194</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>3542</v>
+        <v>3546</v>
       </c>
       <c r="C57" s="4">
         <v>551</v>
       </c>
       <c r="D57" s="4">
-        <v>3340</v>
+        <v>3394</v>
       </c>
       <c r="E57" s="4">
-        <v>7433</v>
+        <v>7491</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>3703369</v>
+        <v>3710426</v>
       </c>
       <c r="C58" s="4">
-        <v>162512</v>
+        <v>162728</v>
       </c>
       <c r="D58" s="4">
-        <v>559432</v>
+        <v>561749</v>
       </c>
       <c r="E58" s="4">
-        <v>4425313</v>
+        <v>4434903</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>11640</v>
+        <v>11650</v>
       </c>
       <c r="C59" s="4">
         <v>583</v>
       </c>
       <c r="D59" s="4">
-        <v>5018</v>
+        <v>5030</v>
       </c>
       <c r="E59" s="4">
-        <v>17241</v>
+        <v>17263</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>14914</v>
+        <v>14932</v>
       </c>
       <c r="C60" s="4">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D60" s="4">
-        <v>6991</v>
+        <v>7023</v>
       </c>
       <c r="E60" s="4">
-        <v>22462</v>
+        <v>22515</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>7367</v>
+        <v>7393</v>
       </c>
       <c r="C61" s="4">
         <v>1195</v>
       </c>
       <c r="D61" s="4">
-        <v>5472</v>
+        <v>5481</v>
       </c>
       <c r="E61" s="4">
-        <v>14034</v>
+        <v>14069</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>2969</v>
+        <v>2971</v>
       </c>
       <c r="C62" s="4">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D62" s="4">
-        <v>2719</v>
+        <v>2733</v>
       </c>
       <c r="E62" s="4">
-        <v>5947</v>
+        <v>5964</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>909583</v>
+        <v>911482</v>
       </c>
       <c r="C63" s="4">
-        <v>79552</v>
+        <v>79639</v>
       </c>
       <c r="D63" s="4">
-        <v>234671</v>
+        <v>235439</v>
       </c>
       <c r="E63" s="4">
-        <v>1223806</v>
+        <v>1226560</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2125,16 +2125,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C64" s="4">
         <v>22</v>
       </c>
       <c r="D64" s="4">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="E64" s="4">
-        <v>1742</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>26967</v>
+        <v>27091</v>
       </c>
       <c r="C65" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D65" s="4">
-        <v>40639</v>
+        <v>40894</v>
       </c>
       <c r="E65" s="4">
-        <v>67734</v>
+        <v>68114</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1924</v>
+        <v>1935</v>
       </c>
       <c r="C66" s="4">
         <v>492</v>
       </c>
       <c r="D66" s="4">
-        <v>2153</v>
+        <v>2161</v>
       </c>
       <c r="E66" s="4">
-        <v>4569</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>23680</v>
+        <v>23693</v>
       </c>
       <c r="C67" s="4">
         <v>3362</v>
       </c>
       <c r="D67" s="4">
-        <v>11471</v>
+        <v>11551</v>
       </c>
       <c r="E67" s="4">
-        <v>38513</v>
+        <v>38606</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>7354</v>
+        <v>7371</v>
       </c>
       <c r="C68" s="4">
         <v>508</v>
       </c>
       <c r="D68" s="4">
-        <v>8508</v>
+        <v>8533</v>
       </c>
       <c r="E68" s="4">
-        <v>16370</v>
+        <v>16412</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>88867</v>
+        <v>89104</v>
       </c>
       <c r="C69" s="4">
-        <v>6278</v>
+        <v>6283</v>
       </c>
       <c r="D69" s="4">
-        <v>55945</v>
+        <v>56141</v>
       </c>
       <c r="E69" s="4">
-        <v>151090</v>
+        <v>151528</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,16 +2227,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="C70" s="4">
         <v>42</v>
       </c>
       <c r="D70" s="4">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="E70" s="4">
-        <v>2327</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>1215965</v>
+        <v>1218401</v>
       </c>
       <c r="C71" s="4">
-        <v>22625</v>
+        <v>22634</v>
       </c>
       <c r="D71" s="4">
-        <v>587795</v>
+        <v>590028</v>
       </c>
       <c r="E71" s="4">
-        <v>1826385</v>
+        <v>1831063</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>246041</v>
+        <v>246345</v>
       </c>
       <c r="C72" s="4">
-        <v>9244</v>
+        <v>9256</v>
       </c>
       <c r="D72" s="4">
-        <v>50777</v>
+        <v>51003</v>
       </c>
       <c r="E72" s="4">
-        <v>306062</v>
+        <v>306604</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>31667</v>
+        <v>31730</v>
       </c>
       <c r="C73" s="4">
-        <v>1849</v>
+        <v>1864</v>
       </c>
       <c r="D73" s="4">
-        <v>14014</v>
+        <v>14035</v>
       </c>
       <c r="E73" s="4">
-        <v>47530</v>
+        <v>47629</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>18030</v>
+        <v>18035</v>
       </c>
       <c r="C74" s="4">
         <v>471</v>
       </c>
       <c r="D74" s="4">
-        <v>8439</v>
+        <v>8521</v>
       </c>
       <c r="E74" s="4">
-        <v>26940</v>
+        <v>27027</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>43319</v>
+        <v>43350</v>
       </c>
       <c r="C75" s="4">
         <v>1094</v>
       </c>
       <c r="D75" s="4">
-        <v>11157</v>
+        <v>11230</v>
       </c>
       <c r="E75" s="4">
-        <v>55570</v>
+        <v>55674</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>22169</v>
+        <v>22211</v>
       </c>
       <c r="C76" s="4">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="D76" s="4">
-        <v>6686</v>
+        <v>6695</v>
       </c>
       <c r="E76" s="4">
-        <v>29798</v>
+        <v>29852</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2352,10 +2352,10 @@
         <v>42</v>
       </c>
       <c r="D77" s="4">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="E77" s="4">
-        <v>2464</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,16 +2363,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>4528</v>
+        <v>4539</v>
       </c>
       <c r="C78" s="4">
         <v>172</v>
       </c>
       <c r="D78" s="4">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="E78" s="4">
-        <v>5491</v>
+        <v>5508</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2380,16 +2380,16 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C79" s="4">
         <v>139</v>
       </c>
       <c r="D79" s="4">
-        <v>1523</v>
+        <v>1532</v>
       </c>
       <c r="E79" s="4">
-        <v>2355</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>1104967</v>
+        <v>1107732</v>
       </c>
       <c r="C80" s="4">
-        <v>49358</v>
+        <v>49429</v>
       </c>
       <c r="D80" s="4">
-        <v>153051</v>
+        <v>153628</v>
       </c>
       <c r="E80" s="4">
-        <v>1307376</v>
+        <v>1310789</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>6877</v>
+        <v>6893</v>
       </c>
       <c r="C81" s="4">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D81" s="4">
-        <v>1749</v>
+        <v>1762</v>
       </c>
       <c r="E81" s="4">
-        <v>9211</v>
+        <v>9241</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>22869</v>
+        <v>22893</v>
       </c>
       <c r="C82" s="4">
         <v>809</v>
       </c>
       <c r="D82" s="4">
-        <v>18000</v>
+        <v>18025</v>
       </c>
       <c r="E82" s="4">
-        <v>41678</v>
+        <v>41727</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>31766</v>
+        <v>31831</v>
       </c>
       <c r="C83" s="4">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D83" s="4">
-        <v>9070</v>
+        <v>9252</v>
       </c>
       <c r="E83" s="4">
-        <v>41410</v>
+        <v>41658</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>5097</v>
+        <v>5105</v>
       </c>
       <c r="C84" s="4">
         <v>304</v>
       </c>
       <c r="D84" s="4">
-        <v>2035</v>
+        <v>2047</v>
       </c>
       <c r="E84" s="4">
-        <v>7436</v>
+        <v>7456</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>589227</v>
+        <v>590239</v>
       </c>
       <c r="C85" s="4">
-        <v>25559</v>
+        <v>25591</v>
       </c>
       <c r="D85" s="4">
-        <v>88483</v>
+        <v>88742</v>
       </c>
       <c r="E85" s="4">
-        <v>703269</v>
+        <v>704572</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,7 +2499,7 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>3780</v>
+        <v>3812</v>
       </c>
       <c r="C86" s="4">
         <v>70</v>
@@ -2508,7 +2508,7 @@
         <v>1798</v>
       </c>
       <c r="E86" s="4">
-        <v>5648</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>21204</v>
+        <v>21228</v>
       </c>
       <c r="C87" s="4">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="D87" s="4">
-        <v>10197</v>
+        <v>10232</v>
       </c>
       <c r="E87" s="4">
-        <v>32340</v>
+        <v>32403</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2533,7 +2533,7 @@
         <v>91</v>
       </c>
       <c r="B88" s="4">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C88" s="4">
         <v>53</v>
@@ -2542,7 +2542,7 @@
         <v>191</v>
       </c>
       <c r="E88" s="4">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>4538</v>
+        <v>4547</v>
       </c>
       <c r="C89" s="4">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D89" s="4">
-        <v>3699</v>
+        <v>3709</v>
       </c>
       <c r="E89" s="4">
-        <v>8549</v>
+        <v>8570</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>16951</v>
+        <v>16967</v>
       </c>
       <c r="C90" s="4">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D90" s="4">
-        <v>10079</v>
+        <v>10096</v>
       </c>
       <c r="E90" s="4">
-        <v>27524</v>
+        <v>27560</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>12417</v>
+        <v>12437</v>
       </c>
       <c r="C91" s="4">
         <v>1256</v>
       </c>
       <c r="D91" s="4">
-        <v>9900</v>
+        <v>9960</v>
       </c>
       <c r="E91" s="4">
-        <v>23573</v>
+        <v>23653</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>161842</v>
+        <v>162128</v>
       </c>
       <c r="C92" s="4">
-        <v>5893</v>
+        <v>5904</v>
       </c>
       <c r="D92" s="4">
-        <v>43207</v>
+        <v>43404</v>
       </c>
       <c r="E92" s="4">
-        <v>210942</v>
+        <v>211436</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>78131</v>
+        <v>78221</v>
       </c>
       <c r="C93" s="4">
-        <v>11959</v>
+        <v>11982</v>
       </c>
       <c r="D93" s="4">
-        <v>42098</v>
+        <v>42221</v>
       </c>
       <c r="E93" s="4">
-        <v>132188</v>
+        <v>132424</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>55472</v>
+        <v>55525</v>
       </c>
       <c r="C94" s="4">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="D94" s="4">
-        <v>13004</v>
+        <v>13049</v>
       </c>
       <c r="E94" s="4">
-        <v>69910</v>
+        <v>70011</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>143867</v>
+        <v>144083</v>
       </c>
       <c r="C95" s="4">
-        <v>5740</v>
+        <v>5763</v>
       </c>
       <c r="D95" s="4">
-        <v>44252</v>
+        <v>44431</v>
       </c>
       <c r="E95" s="4">
-        <v>193859</v>
+        <v>194277</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>29417</v>
+        <v>29563</v>
       </c>
       <c r="C96" s="4">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D96" s="4">
-        <v>7264</v>
+        <v>7378</v>
       </c>
       <c r="E96" s="4">
-        <v>37195</v>
+        <v>37456</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1916</v>
+        <v>1934</v>
       </c>
       <c r="C97" s="4">
         <v>77</v>
       </c>
       <c r="D97" s="4">
-        <v>2945</v>
+        <v>2950</v>
       </c>
       <c r="E97" s="4">
-        <v>4938</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>10253</v>
+        <v>10279</v>
       </c>
       <c r="C98" s="4">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D98" s="4">
-        <v>3837</v>
+        <v>3846</v>
       </c>
       <c r="E98" s="4">
-        <v>14539</v>
+        <v>14576</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1896</v>
+        <v>1905</v>
       </c>
       <c r="C99" s="4">
         <v>816</v>
       </c>
       <c r="D99" s="4">
-        <v>3312</v>
+        <v>3319</v>
       </c>
       <c r="E99" s="4">
-        <v>6024</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,16 +2737,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>2357</v>
+        <v>2371</v>
       </c>
       <c r="C100" s="4">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D100" s="4">
-        <v>2931</v>
+        <v>2981</v>
       </c>
       <c r="E100" s="4">
-        <v>5600</v>
+        <v>5665</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>40409</v>
+        <v>40475</v>
       </c>
       <c r="C101" s="4">
-        <v>4301</v>
+        <v>4310</v>
       </c>
       <c r="D101" s="4">
-        <v>23180</v>
+        <v>23214</v>
       </c>
       <c r="E101" s="4">
-        <v>67890</v>
+        <v>67999</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>6747120</v>
+        <v>6762727</v>
       </c>
       <c r="C102" s="4">
-        <v>270597</v>
+        <v>270797</v>
       </c>
       <c r="D102" s="4">
-        <v>993896</v>
+        <v>997569</v>
       </c>
       <c r="E102" s="4">
-        <v>8011613</v>
+        <v>8031093</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>82536</v>
+        <v>82580</v>
       </c>
       <c r="C103" s="4">
-        <v>9040</v>
+        <v>9057</v>
       </c>
       <c r="D103" s="4">
-        <v>28990</v>
+        <v>29050</v>
       </c>
       <c r="E103" s="4">
-        <v>120566</v>
+        <v>120687</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2811,10 +2811,10 @@
         <v>70</v>
       </c>
       <c r="D104" s="4">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E104" s="4">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2828,10 +2828,10 @@
         <v>42</v>
       </c>
       <c r="D105" s="4">
-        <v>3046</v>
+        <v>3056</v>
       </c>
       <c r="E105" s="4">
-        <v>4953</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>421097</v>
+        <v>421802</v>
       </c>
       <c r="C106" s="4">
-        <v>15550</v>
+        <v>15607</v>
       </c>
       <c r="D106" s="4">
-        <v>55410</v>
+        <v>55597</v>
       </c>
       <c r="E106" s="4">
-        <v>492057</v>
+        <v>493006</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2856,7 +2856,7 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="C107" s="4">
         <v>499</v>
@@ -2865,7 +2865,7 @@
         <v>500</v>
       </c>
       <c r="E107" s="4">
-        <v>2157</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>45639</v>
+        <v>45714</v>
       </c>
       <c r="C108" s="4">
-        <v>3105</v>
+        <v>3112</v>
       </c>
       <c r="D108" s="4">
-        <v>27205</v>
+        <v>27281</v>
       </c>
       <c r="E108" s="4">
-        <v>75949</v>
+        <v>76107</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>765510</v>
+        <v>767400</v>
       </c>
       <c r="C109" s="4">
-        <v>20816</v>
+        <v>20838</v>
       </c>
       <c r="D109" s="4">
-        <v>381140</v>
+        <v>382069</v>
       </c>
       <c r="E109" s="4">
-        <v>1167466</v>
+        <v>1170307</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>40791</v>
+        <v>40838</v>
       </c>
       <c r="C110" s="4">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="D110" s="4">
-        <v>16707</v>
+        <v>16765</v>
       </c>
       <c r="E110" s="4">
-        <v>58720</v>
+        <v>58828</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>15887</v>
+        <v>15929</v>
       </c>
       <c r="C111" s="4">
         <v>250</v>
       </c>
       <c r="D111" s="4">
-        <v>6000</v>
+        <v>6046</v>
       </c>
       <c r="E111" s="4">
-        <v>22137</v>
+        <v>22225</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>52438</v>
+        <v>52503</v>
       </c>
       <c r="C112" s="4">
-        <v>3160</v>
+        <v>3164</v>
       </c>
       <c r="D112" s="4">
-        <v>41589</v>
+        <v>41663</v>
       </c>
       <c r="E112" s="4">
-        <v>97187</v>
+        <v>97330</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>26095</v>
+        <v>26128</v>
       </c>
       <c r="C113" s="4">
         <v>2111</v>
       </c>
       <c r="D113" s="4">
-        <v>11790</v>
+        <v>11810</v>
       </c>
       <c r="E113" s="4">
-        <v>39996</v>
+        <v>40049</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>20717</v>
+        <v>20730</v>
       </c>
       <c r="C114" s="4">
         <v>678</v>
       </c>
       <c r="D114" s="4">
-        <v>9904</v>
+        <v>9926</v>
       </c>
       <c r="E114" s="4">
-        <v>31299</v>
+        <v>31334</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>22335</v>
+        <v>22350</v>
       </c>
       <c r="C115" s="4">
         <v>919</v>
       </c>
       <c r="D115" s="4">
-        <v>15166</v>
+        <v>15220</v>
       </c>
       <c r="E115" s="4">
-        <v>38420</v>
+        <v>38489</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="C116" s="4">
         <v>50</v>
       </c>
       <c r="D116" s="4">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="E116" s="4">
-        <v>5018</v>
+        <v>5022</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>124423</v>
+        <v>124615</v>
       </c>
       <c r="C117" s="4">
-        <v>4999</v>
+        <v>5012</v>
       </c>
       <c r="D117" s="4">
-        <v>42288</v>
+        <v>42501</v>
       </c>
       <c r="E117" s="4">
-        <v>171710</v>
+        <v>172128</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>12533</v>
+        <v>12566</v>
       </c>
       <c r="C118" s="4">
         <v>1773</v>
       </c>
       <c r="D118" s="4">
-        <v>9562</v>
+        <v>9583</v>
       </c>
       <c r="E118" s="4">
-        <v>23868</v>
+        <v>23922</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,16 +3060,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C119" s="4">
         <v>24</v>
       </c>
       <c r="D119" s="4">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E119" s="4">
-        <v>1268</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>4547</v>
+        <v>4551</v>
       </c>
       <c r="C120" s="4">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D120" s="4">
-        <v>1742</v>
+        <v>1752</v>
       </c>
       <c r="E120" s="4">
-        <v>6560</v>
+        <v>6575</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>10591</v>
+        <v>10601</v>
       </c>
       <c r="C121" s="4">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D121" s="4">
-        <v>5378</v>
+        <v>5392</v>
       </c>
       <c r="E121" s="4">
-        <v>16469</v>
+        <v>16497</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>26713</v>
+        <v>26745</v>
       </c>
       <c r="C122" s="4">
-        <v>3022</v>
+        <v>3026</v>
       </c>
       <c r="D122" s="4">
-        <v>14261</v>
+        <v>14306</v>
       </c>
       <c r="E122" s="4">
-        <v>43996</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,16 +3128,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="C123" s="4">
         <v>56</v>
       </c>
       <c r="D123" s="4">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E123" s="4">
-        <v>2374</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>228459</v>
+        <v>228734</v>
       </c>
       <c r="C124" s="4">
-        <v>15932</v>
+        <v>15948</v>
       </c>
       <c r="D124" s="4">
-        <v>95261</v>
+        <v>95501</v>
       </c>
       <c r="E124" s="4">
-        <v>339652</v>
+        <v>340183</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>14974</v>
+        <v>14980</v>
       </c>
       <c r="C125" s="4">
         <v>759</v>
       </c>
       <c r="D125" s="4">
-        <v>14193</v>
+        <v>14367</v>
       </c>
       <c r="E125" s="4">
-        <v>29926</v>
+        <v>30106</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>75018</v>
+        <v>75139</v>
       </c>
       <c r="C126" s="4">
-        <v>10809</v>
+        <v>10814</v>
       </c>
       <c r="D126" s="4">
-        <v>33397</v>
+        <v>33458</v>
       </c>
       <c r="E126" s="4">
-        <v>119224</v>
+        <v>119411</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>185857</v>
+        <v>186129</v>
       </c>
       <c r="C127" s="4">
-        <v>8868</v>
+        <v>8879</v>
       </c>
       <c r="D127" s="4">
-        <v>44555</v>
+        <v>44756</v>
       </c>
       <c r="E127" s="4">
-        <v>239280</v>
+        <v>239764</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>10667</v>
+        <v>10681</v>
       </c>
       <c r="C128" s="4">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D128" s="4">
-        <v>8205</v>
+        <v>8244</v>
       </c>
       <c r="E128" s="4">
-        <v>19106</v>
+        <v>19160</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>21542</v>
+        <v>21569</v>
       </c>
       <c r="C129" s="4">
         <v>568</v>
       </c>
       <c r="D129" s="4">
-        <v>12263</v>
+        <v>12280</v>
       </c>
       <c r="E129" s="4">
-        <v>34373</v>
+        <v>34417</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>165704</v>
+        <v>165958</v>
       </c>
       <c r="C130" s="4">
-        <v>6988</v>
+        <v>6996</v>
       </c>
       <c r="D130" s="4">
-        <v>49290</v>
+        <v>49420</v>
       </c>
       <c r="E130" s="4">
-        <v>221982</v>
+        <v>222374</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>41202</v>
+        <v>41276</v>
       </c>
       <c r="C131" s="4">
-        <v>2606</v>
+        <v>2617</v>
       </c>
       <c r="D131" s="4">
-        <v>20225</v>
+        <v>20304</v>
       </c>
       <c r="E131" s="4">
-        <v>64033</v>
+        <v>64197</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3287,10 +3287,10 @@
         <v>50</v>
       </c>
       <c r="D132" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E132" s="4">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="133" ht="14" customHeight="1">
@@ -3304,10 +3304,10 @@
         <v>0</v>
       </c>
       <c r="D133" s="4">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="E133" s="4">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>45072</v>
+        <v>45116</v>
       </c>
       <c r="C134" s="4">
-        <v>1749</v>
+        <v>1763</v>
       </c>
       <c r="D134" s="4">
-        <v>41684</v>
+        <v>41940</v>
       </c>
       <c r="E134" s="4">
-        <v>88505</v>
+        <v>88819</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="C135" s="4">
         <v>62</v>
       </c>
       <c r="D135" s="4">
-        <v>1229</v>
+        <v>1236</v>
       </c>
       <c r="E135" s="4">
-        <v>3509</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3366,16 +3366,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>3175</v>
+        <v>3178</v>
       </c>
       <c r="C137" s="4">
         <v>57</v>
       </c>
       <c r="D137" s="4">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="E137" s="4">
-        <v>3999</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>37712</v>
+        <v>37734</v>
       </c>
       <c r="C138" s="4">
-        <v>5428</v>
+        <v>5435</v>
       </c>
       <c r="D138" s="4">
-        <v>16661</v>
+        <v>16694</v>
       </c>
       <c r="E138" s="4">
-        <v>59801</v>
+        <v>59863</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3400,16 +3400,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="C139" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D139" s="4">
-        <v>5452</v>
+        <v>5465</v>
       </c>
       <c r="E139" s="4">
-        <v>6632</v>
+        <v>6648</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>11622</v>
+        <v>11657</v>
       </c>
       <c r="C140" s="4">
         <v>324</v>
       </c>
       <c r="D140" s="4">
-        <v>3960</v>
+        <v>3969</v>
       </c>
       <c r="E140" s="4">
-        <v>15906</v>
+        <v>15950</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>30030</v>
+        <v>30056</v>
       </c>
       <c r="C141" s="4">
-        <v>2910</v>
+        <v>2913</v>
       </c>
       <c r="D141" s="4">
-        <v>18247</v>
+        <v>18298</v>
       </c>
       <c r="E141" s="4">
-        <v>51187</v>
+        <v>51267</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>8489</v>
+        <v>8507</v>
       </c>
       <c r="C142" s="4">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D142" s="4">
-        <v>8782</v>
+        <v>8839</v>
       </c>
       <c r="E142" s="4">
-        <v>17440</v>
+        <v>17516</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>27803</v>
+        <v>27830</v>
       </c>
       <c r="C143" s="4">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D143" s="4">
-        <v>7752</v>
+        <v>7760</v>
       </c>
       <c r="E143" s="4">
-        <v>36309</v>
+        <v>36346</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>18010</v>
+        <v>18032</v>
       </c>
       <c r="C144" s="4">
-        <v>1212</v>
+        <v>1218</v>
       </c>
       <c r="D144" s="4">
-        <v>11725</v>
+        <v>11751</v>
       </c>
       <c r="E144" s="4">
-        <v>30947</v>
+        <v>31001</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>12371</v>
+        <v>12393</v>
       </c>
       <c r="C145" s="4">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D145" s="4">
-        <v>6074</v>
+        <v>6082</v>
       </c>
       <c r="E145" s="4">
-        <v>18873</v>
+        <v>18905</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>15792</v>
+        <v>15812</v>
       </c>
       <c r="C146" s="4">
         <v>829</v>
       </c>
       <c r="D146" s="4">
-        <v>6515</v>
+        <v>6528</v>
       </c>
       <c r="E146" s="4">
-        <v>23136</v>
+        <v>23169</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>87585</v>
+        <v>87703</v>
       </c>
       <c r="C147" s="4">
-        <v>4676</v>
+        <v>4680</v>
       </c>
       <c r="D147" s="4">
-        <v>22380</v>
+        <v>22481</v>
       </c>
       <c r="E147" s="4">
-        <v>114641</v>
+        <v>114864</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>38279</v>
+        <v>38292</v>
       </c>
       <c r="C148" s="4">
         <v>755</v>
       </c>
       <c r="D148" s="4">
-        <v>31599</v>
+        <v>31649</v>
       </c>
       <c r="E148" s="4">
-        <v>70633</v>
+        <v>70696</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3570,7 +3570,7 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C149" s="4">
         <v>284</v>
@@ -3579,7 +3579,7 @@
         <v>708</v>
       </c>
       <c r="E149" s="4">
-        <v>1472</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>9055</v>
+        <v>9061</v>
       </c>
       <c r="C150" s="4">
         <v>1315</v>
       </c>
       <c r="D150" s="4">
-        <v>6084</v>
+        <v>6089</v>
       </c>
       <c r="E150" s="4">
-        <v>16454</v>
+        <v>16465</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>18024</v>
+        <v>18058</v>
       </c>
       <c r="C151" s="4">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D151" s="4">
-        <v>4433</v>
+        <v>4441</v>
       </c>
       <c r="E151" s="4">
-        <v>23027</v>
+        <v>23070</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3621,16 +3621,16 @@
         <v>155</v>
       </c>
       <c r="B152" s="4">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C152" s="4">
         <v>4</v>
       </c>
       <c r="D152" s="4">
-        <v>3053</v>
+        <v>3217</v>
       </c>
       <c r="E152" s="4">
-        <v>3159</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="153" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>317344</v>
+        <v>318359</v>
       </c>
       <c r="C153" s="4">
-        <v>11260</v>
+        <v>11304</v>
       </c>
       <c r="D153" s="4">
-        <v>158585</v>
+        <v>159251</v>
       </c>
       <c r="E153" s="4">
-        <v>487189</v>
+        <v>488914</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>4051</v>
+        <v>4064</v>
       </c>
       <c r="C154" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D154" s="4">
-        <v>4022</v>
+        <v>4025</v>
       </c>
       <c r="E154" s="4">
-        <v>8239</v>
+        <v>8256</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>19100</v>
+        <v>19108</v>
       </c>
       <c r="C155" s="4">
         <v>404</v>
       </c>
       <c r="D155" s="4">
-        <v>5517</v>
+        <v>5590</v>
       </c>
       <c r="E155" s="4">
-        <v>25021</v>
+        <v>25102</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>3932</v>
+        <v>3937</v>
       </c>
       <c r="C156" s="4">
         <v>863</v>
       </c>
       <c r="D156" s="4">
-        <v>3600</v>
+        <v>3612</v>
       </c>
       <c r="E156" s="4">
-        <v>8395</v>
+        <v>8412</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="C157" s="4">
         <v>250</v>
       </c>
       <c r="D157" s="4">
-        <v>1317</v>
+        <v>1321</v>
       </c>
       <c r="E157" s="4">
-        <v>3344</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>2452</v>
+        <v>2455</v>
       </c>
       <c r="C158" s="4">
         <v>107</v>
       </c>
       <c r="D158" s="4">
-        <v>1692</v>
+        <v>1700</v>
       </c>
       <c r="E158" s="4">
-        <v>4251</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>47049</v>
+        <v>47098</v>
       </c>
       <c r="C159" s="4">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="D159" s="4">
-        <v>7400</v>
+        <v>7411</v>
       </c>
       <c r="E159" s="4">
-        <v>56392</v>
+        <v>56454</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>83876</v>
+        <v>83956</v>
       </c>
       <c r="C160" s="4">
         <v>515</v>
       </c>
       <c r="D160" s="4">
-        <v>22058</v>
+        <v>22194</v>
       </c>
       <c r="E160" s="4">
-        <v>106449</v>
+        <v>106665</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>3426</v>
+        <v>3428</v>
       </c>
       <c r="C161" s="4">
         <v>89</v>
       </c>
       <c r="D161" s="4">
-        <v>3801</v>
+        <v>3808</v>
       </c>
       <c r="E161" s="4">
-        <v>7316</v>
+        <v>7325</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>402576</v>
+        <v>403014</v>
       </c>
       <c r="C162" s="4">
-        <v>12450</v>
+        <v>12492</v>
       </c>
       <c r="D162" s="4">
-        <v>139010</v>
+        <v>139725</v>
       </c>
       <c r="E162" s="4">
-        <v>554036</v>
+        <v>555231</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>47939</v>
+        <v>48031</v>
       </c>
       <c r="C164" s="4">
-        <v>1631</v>
+        <v>1635</v>
       </c>
       <c r="D164" s="4">
-        <v>14068</v>
+        <v>14106</v>
       </c>
       <c r="E164" s="4">
-        <v>63638</v>
+        <v>63772</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3848,10 +3848,10 @@
         <v>28</v>
       </c>
       <c r="D165" s="4">
-        <v>1928</v>
+        <v>1935</v>
       </c>
       <c r="E165" s="4">
-        <v>4352</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>77392</v>
+        <v>77569</v>
       </c>
       <c r="C166" s="4">
-        <v>10578</v>
+        <v>10605</v>
       </c>
       <c r="D166" s="4">
-        <v>79858</v>
+        <v>80078</v>
       </c>
       <c r="E166" s="4">
-        <v>167828</v>
+        <v>168252</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>24670</v>
+        <v>24687</v>
       </c>
       <c r="C167" s="4">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="D167" s="4">
-        <v>12618</v>
+        <v>12628</v>
       </c>
       <c r="E167" s="4">
-        <v>38547</v>
+        <v>38576</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>7637</v>
+        <v>7701</v>
       </c>
       <c r="C168" s="4">
         <v>130</v>
       </c>
       <c r="D168" s="4">
-        <v>2624</v>
+        <v>2630</v>
       </c>
       <c r="E168" s="4">
-        <v>10391</v>
+        <v>10461</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>8673</v>
+        <v>8682</v>
       </c>
       <c r="C169" s="4">
         <v>80</v>
       </c>
       <c r="D169" s="4">
-        <v>6144</v>
+        <v>6202</v>
       </c>
       <c r="E169" s="4">
-        <v>14897</v>
+        <v>14964</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>17415</v>
+        <v>17512</v>
       </c>
       <c r="C170" s="4">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="D170" s="4">
-        <v>8224</v>
+        <v>8237</v>
       </c>
       <c r="E170" s="4">
-        <v>26887</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>648371</v>
+        <v>649852</v>
       </c>
       <c r="C171" s="4">
-        <v>46532</v>
+        <v>46579</v>
       </c>
       <c r="D171" s="4">
-        <v>136677</v>
+        <v>137224</v>
       </c>
       <c r="E171" s="4">
-        <v>831580</v>
+        <v>833655</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>10458</v>
+        <v>10468</v>
       </c>
       <c r="C172" s="4">
         <v>1187</v>
       </c>
       <c r="D172" s="4">
-        <v>5729</v>
+        <v>5753</v>
       </c>
       <c r="E172" s="4">
-        <v>17374</v>
+        <v>17408</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>8871</v>
+        <v>8892</v>
       </c>
       <c r="C173" s="4">
         <v>804</v>
       </c>
       <c r="D173" s="4">
-        <v>8090</v>
+        <v>8106</v>
       </c>
       <c r="E173" s="4">
-        <v>17765</v>
+        <v>17802</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3995,16 +3995,16 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C174" s="4">
         <v>17</v>
       </c>
       <c r="D174" s="4">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E174" s="4">
-        <v>1123</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>60833</v>
+        <v>60928</v>
       </c>
       <c r="C175" s="4">
-        <v>4144</v>
+        <v>4155</v>
       </c>
       <c r="D175" s="4">
-        <v>20696</v>
+        <v>20750</v>
       </c>
       <c r="E175" s="4">
-        <v>85673</v>
+        <v>85833</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>39820</v>
+        <v>39873</v>
       </c>
       <c r="C176" s="4">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="D176" s="4">
-        <v>28225</v>
+        <v>28387</v>
       </c>
       <c r="E176" s="4">
-        <v>70007</v>
+        <v>70225</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>6757</v>
+        <v>6766</v>
       </c>
       <c r="C177" s="4">
         <v>901</v>
       </c>
       <c r="D177" s="4">
-        <v>4909</v>
+        <v>4927</v>
       </c>
       <c r="E177" s="4">
-        <v>12567</v>
+        <v>12594</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>10031</v>
+        <v>10038</v>
       </c>
       <c r="C178" s="4">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D178" s="4">
-        <v>7177</v>
+        <v>7224</v>
       </c>
       <c r="E178" s="4">
-        <v>17432</v>
+        <v>17487</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>336719</v>
+        <v>337147</v>
       </c>
       <c r="C179" s="4">
-        <v>51986</v>
+        <v>52046</v>
       </c>
       <c r="D179" s="4">
-        <v>155153</v>
+        <v>155539</v>
       </c>
       <c r="E179" s="4">
-        <v>543858</v>
+        <v>544732</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>1347</v>
+        <v>1355</v>
       </c>
       <c r="C180" s="4">
         <v>376</v>
       </c>
       <c r="D180" s="4">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="E180" s="4">
-        <v>2909</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4114,16 +4114,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C181" s="4">
         <v>384</v>
       </c>
       <c r="D181" s="4">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="E181" s="4">
-        <v>2687</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>50879</v>
+        <v>50953</v>
       </c>
       <c r="C182" s="4">
-        <v>6939</v>
+        <v>6944</v>
       </c>
       <c r="D182" s="4">
-        <v>25858</v>
+        <v>25922</v>
       </c>
       <c r="E182" s="4">
-        <v>83676</v>
+        <v>83819</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>23120</v>
+        <v>23164</v>
       </c>
       <c r="C183" s="4">
         <v>1094</v>
       </c>
       <c r="D183" s="4">
-        <v>12409</v>
+        <v>12432</v>
       </c>
       <c r="E183" s="4">
-        <v>36623</v>
+        <v>36690</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>14177</v>
+        <v>14200</v>
       </c>
       <c r="C184" s="4">
         <v>1314</v>
       </c>
       <c r="D184" s="4">
-        <v>8306</v>
+        <v>8328</v>
       </c>
       <c r="E184" s="4">
-        <v>23797</v>
+        <v>23842</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>125931</v>
+        <v>126259</v>
       </c>
       <c r="C185" s="4">
-        <v>7621</v>
+        <v>7628</v>
       </c>
       <c r="D185" s="4">
-        <v>36290</v>
+        <v>36384</v>
       </c>
       <c r="E185" s="4">
-        <v>169842</v>
+        <v>170271</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>3056</v>
+        <v>3063</v>
       </c>
       <c r="C186" s="4">
         <v>341</v>
       </c>
       <c r="D186" s="4">
-        <v>3247</v>
+        <v>3255</v>
       </c>
       <c r="E186" s="4">
-        <v>6644</v>
+        <v>6659</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>14769</v>
+        <v>14776</v>
       </c>
       <c r="C187" s="4">
         <v>162</v>
       </c>
       <c r="D187" s="4">
-        <v>3856</v>
+        <v>3868</v>
       </c>
       <c r="E187" s="4">
-        <v>18787</v>
+        <v>18806</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>54289</v>
+        <v>54337</v>
       </c>
       <c r="C188" s="4">
-        <v>2836</v>
+        <v>2845</v>
       </c>
       <c r="D188" s="4">
-        <v>20379</v>
+        <v>20493</v>
       </c>
       <c r="E188" s="4">
-        <v>77504</v>
+        <v>77675</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>110527</v>
+        <v>110846</v>
       </c>
       <c r="C189" s="4">
-        <v>9506</v>
+        <v>9516</v>
       </c>
       <c r="D189" s="4">
-        <v>37285</v>
+        <v>37456</v>
       </c>
       <c r="E189" s="4">
-        <v>157318</v>
+        <v>157818</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>7848</v>
+        <v>7850</v>
       </c>
       <c r="C190" s="4">
         <v>60</v>
       </c>
       <c r="D190" s="4">
-        <v>2359</v>
+        <v>2364</v>
       </c>
       <c r="E190" s="4">
-        <v>10267</v>
+        <v>10274</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>5411</v>
+        <v>5424</v>
       </c>
       <c r="C191" s="4">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D191" s="4">
-        <v>2959</v>
+        <v>2968</v>
       </c>
       <c r="E191" s="4">
-        <v>8847</v>
+        <v>8870</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>79868</v>
+        <v>80143</v>
       </c>
       <c r="C192" s="4">
-        <v>19420</v>
+        <v>19445</v>
       </c>
       <c r="D192" s="4">
-        <v>34140</v>
+        <v>34312</v>
       </c>
       <c r="E192" s="4">
-        <v>133428</v>
+        <v>133900</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4318,16 +4318,16 @@
         <v>196</v>
       </c>
       <c r="B193" s="4">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C193" s="4">
         <v>43</v>
       </c>
       <c r="D193" s="4">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="E193" s="4">
-        <v>2095</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>2594</v>
+        <v>2595</v>
       </c>
       <c r="C194" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D194" s="4">
-        <v>1590</v>
+        <v>1604</v>
       </c>
       <c r="E194" s="4">
-        <v>4295</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>8121</v>
+        <v>8132</v>
       </c>
       <c r="C195" s="4">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="D195" s="4">
-        <v>7939</v>
+        <v>7973</v>
       </c>
       <c r="E195" s="4">
-        <v>16786</v>
+        <v>16834</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>12110</v>
+        <v>12131</v>
       </c>
       <c r="C196" s="4">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D196" s="4">
-        <v>91895</v>
+        <v>92045</v>
       </c>
       <c r="E196" s="4">
-        <v>104494</v>
+        <v>104667</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>5514</v>
+        <v>5523</v>
       </c>
       <c r="C197" s="4">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D197" s="4">
-        <v>7536</v>
+        <v>7542</v>
       </c>
       <c r="E197" s="4">
-        <v>13547</v>
+        <v>13564</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4403,16 +4403,16 @@
         <v>201</v>
       </c>
       <c r="B198" s="4">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C198" s="4">
         <v>111</v>
       </c>
       <c r="D198" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E198" s="4">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="199" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>18225</v>
+        <v>18248</v>
       </c>
       <c r="C199" s="4">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D199" s="4">
-        <v>12589</v>
+        <v>12660</v>
       </c>
       <c r="E199" s="4">
-        <v>31340</v>
+        <v>31436</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>108308</v>
+        <v>108467</v>
       </c>
       <c r="C200" s="4">
-        <v>7644</v>
+        <v>7665</v>
       </c>
       <c r="D200" s="4">
-        <v>18709</v>
+        <v>18784</v>
       </c>
       <c r="E200" s="4">
-        <v>134661</v>
+        <v>134916</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>7853</v>
+        <v>7858</v>
       </c>
       <c r="C201" s="4">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D201" s="4">
-        <v>7045</v>
+        <v>7054</v>
       </c>
       <c r="E201" s="4">
-        <v>15136</v>
+        <v>15151</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>34843</v>
+        <v>34862</v>
       </c>
       <c r="C202" s="4">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="D202" s="4">
-        <v>9063</v>
+        <v>9094</v>
       </c>
       <c r="E202" s="4">
-        <v>46331</v>
+        <v>46382</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>10451</v>
+        <v>10465</v>
       </c>
       <c r="C203" s="4">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D203" s="4">
-        <v>4854</v>
+        <v>4864</v>
       </c>
       <c r="E203" s="4">
-        <v>16027</v>
+        <v>16053</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>9496</v>
+        <v>9500</v>
       </c>
       <c r="C204" s="4">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D204" s="4">
-        <v>8350</v>
+        <v>8356</v>
       </c>
       <c r="E204" s="4">
-        <v>18125</v>
+        <v>18136</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>29801</v>
+        <v>29844</v>
       </c>
       <c r="C205" s="4">
-        <v>2449</v>
+        <v>2454</v>
       </c>
       <c r="D205" s="4">
-        <v>9837</v>
+        <v>9866</v>
       </c>
       <c r="E205" s="4">
-        <v>42087</v>
+        <v>42164</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>51474</v>
+        <v>51548</v>
       </c>
       <c r="C206" s="4">
-        <v>9737</v>
+        <v>9754</v>
       </c>
       <c r="D206" s="4">
-        <v>41251</v>
+        <v>41349</v>
       </c>
       <c r="E206" s="4">
-        <v>102462</v>
+        <v>102651</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>5362</v>
+        <v>5366</v>
       </c>
       <c r="C207" s="4">
         <v>131</v>
       </c>
       <c r="D207" s="4">
-        <v>3919</v>
+        <v>3924</v>
       </c>
       <c r="E207" s="4">
-        <v>9412</v>
+        <v>9421</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4579,10 +4579,10 @@
         <v>25</v>
       </c>
       <c r="D208" s="4">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="E208" s="4">
-        <v>1930</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>26946</v>
+        <v>26999</v>
       </c>
       <c r="C209" s="4">
         <v>323</v>
       </c>
       <c r="D209" s="4">
-        <v>3343</v>
+        <v>3419</v>
       </c>
       <c r="E209" s="4">
-        <v>30612</v>
+        <v>30741</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="C210" s="4">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D210" s="4">
-        <v>1281</v>
+        <v>1286</v>
       </c>
       <c r="E210" s="4">
-        <v>2442</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>19953</v>
+        <v>19996</v>
       </c>
       <c r="C211" s="4">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D211" s="4">
-        <v>8952</v>
+        <v>8968</v>
       </c>
       <c r="E211" s="4">
-        <v>30303</v>
+        <v>30363</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4641,16 +4641,16 @@
         <v>215</v>
       </c>
       <c r="B212" s="4">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C212" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D212" s="4">
         <v>206</v>
       </c>
       <c r="E212" s="4">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>278946</v>
+        <v>279222</v>
       </c>
       <c r="C213" s="4">
-        <v>13624</v>
+        <v>13690</v>
       </c>
       <c r="D213" s="4">
-        <v>87934</v>
+        <v>88252</v>
       </c>
       <c r="E213" s="4">
-        <v>380504</v>
+        <v>381164</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>7674</v>
+        <v>7687</v>
       </c>
       <c r="C214" s="4">
         <v>435</v>
       </c>
       <c r="D214" s="4">
-        <v>7891</v>
+        <v>7904</v>
       </c>
       <c r="E214" s="4">
-        <v>16000</v>
+        <v>16026</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>75089</v>
+        <v>75213</v>
       </c>
       <c r="C215" s="4">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D215" s="4">
-        <v>35262</v>
+        <v>35291</v>
       </c>
       <c r="E215" s="4">
-        <v>111213</v>
+        <v>111367</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>5871</v>
+        <v>5878</v>
       </c>
       <c r="C216" s="4">
         <v>164</v>
       </c>
       <c r="D216" s="4">
-        <v>6715</v>
+        <v>6752</v>
       </c>
       <c r="E216" s="4">
-        <v>12750</v>
+        <v>12794</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4732,10 +4732,10 @@
         <v>23</v>
       </c>
       <c r="D217" s="4">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="E217" s="4">
-        <v>1627</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4760,16 +4760,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="C219" s="4">
         <v>47</v>
       </c>
       <c r="D219" s="4">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="E219" s="4">
-        <v>2762</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>8075</v>
+        <v>8178</v>
       </c>
       <c r="C220" s="4">
         <v>420</v>
       </c>
       <c r="D220" s="4">
-        <v>2101</v>
+        <v>2122</v>
       </c>
       <c r="E220" s="4">
-        <v>10596</v>
+        <v>10720</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>2604650</v>
+        <v>2609174</v>
       </c>
       <c r="C221" s="4">
-        <v>113214</v>
+        <v>113358</v>
       </c>
       <c r="D221" s="4">
-        <v>533405</v>
+        <v>536299</v>
       </c>
       <c r="E221" s="4">
-        <v>3251269</v>
+        <v>3258831</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>113997</v>
+        <v>114153</v>
       </c>
       <c r="C222" s="4">
-        <v>4360</v>
+        <v>4371</v>
       </c>
       <c r="D222" s="4">
-        <v>131044</v>
+        <v>131516</v>
       </c>
       <c r="E222" s="4">
-        <v>249401</v>
+        <v>250040</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>5812</v>
+        <v>5819</v>
       </c>
       <c r="C224" s="4">
         <v>137</v>
       </c>
       <c r="D224" s="4">
-        <v>3840</v>
+        <v>3856</v>
       </c>
       <c r="E224" s="4">
-        <v>9789</v>
+        <v>9812</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4868,10 +4868,10 @@
         <v>56</v>
       </c>
       <c r="D225" s="4">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E225" s="4">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>31946</v>
+        <v>32048</v>
       </c>
       <c r="C226" s="4">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="D226" s="4">
-        <v>8876</v>
+        <v>8884</v>
       </c>
       <c r="E226" s="4">
-        <v>42242</v>
+        <v>42356</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>96593</v>
+        <v>96659</v>
       </c>
       <c r="C227" s="4">
         <v>3052</v>
       </c>
       <c r="D227" s="4">
-        <v>111355</v>
+        <v>111814</v>
       </c>
       <c r="E227" s="4">
-        <v>211000</v>
+        <v>211525</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>1749611</v>
+        <v>1753254</v>
       </c>
       <c r="C228" s="4">
-        <v>73785</v>
+        <v>74166</v>
       </c>
       <c r="D228" s="4">
-        <v>405133</v>
+        <v>407239</v>
       </c>
       <c r="E228" s="4">
-        <v>2228529</v>
+        <v>2234659</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>17685</v>
+        <v>17700</v>
       </c>
       <c r="C229" s="4">
         <v>597</v>
       </c>
       <c r="D229" s="4">
-        <v>7898</v>
+        <v>7915</v>
       </c>
       <c r="E229" s="4">
-        <v>26180</v>
+        <v>26212</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>15970</v>
+        <v>15994</v>
       </c>
       <c r="C230" s="4">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D230" s="4">
-        <v>10265</v>
+        <v>10299</v>
       </c>
       <c r="E230" s="4">
-        <v>27320</v>
+        <v>27379</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>15830</v>
+        <v>15839</v>
       </c>
       <c r="C231" s="4">
-        <v>2439</v>
+        <v>2441</v>
       </c>
       <c r="D231" s="4">
-        <v>9207</v>
+        <v>9226</v>
       </c>
       <c r="E231" s="4">
-        <v>27476</v>
+        <v>27506</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="C232" s="4">
         <v>101</v>
       </c>
       <c r="D232" s="4">
-        <v>3882</v>
+        <v>3904</v>
       </c>
       <c r="E232" s="4">
-        <v>5147</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>38727</v>
+        <v>38778</v>
       </c>
       <c r="C233" s="4">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D233" s="4">
-        <v>4576</v>
+        <v>4598</v>
       </c>
       <c r="E233" s="4">
-        <v>43860</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>62029</v>
+        <v>62126</v>
       </c>
       <c r="C234" s="4">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="D234" s="4">
-        <v>32641</v>
+        <v>32697</v>
       </c>
       <c r="E234" s="4">
-        <v>96018</v>
+        <v>96173</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>32128</v>
+        <v>32177</v>
       </c>
       <c r="C235" s="4">
-        <v>2324</v>
+        <v>2328</v>
       </c>
       <c r="D235" s="4">
-        <v>20470</v>
+        <v>20527</v>
       </c>
       <c r="E235" s="4">
-        <v>54922</v>
+        <v>55032</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>70270</v>
+        <v>70380</v>
       </c>
       <c r="C236" s="4">
-        <v>4592</v>
+        <v>4629</v>
       </c>
       <c r="D236" s="4">
-        <v>30787</v>
+        <v>30875</v>
       </c>
       <c r="E236" s="4">
-        <v>105649</v>
+        <v>105884</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>165075</v>
+        <v>165217</v>
       </c>
       <c r="C237" s="4">
-        <v>3224</v>
+        <v>3228</v>
       </c>
       <c r="D237" s="4">
-        <v>44678</v>
+        <v>44909</v>
       </c>
       <c r="E237" s="4">
-        <v>212977</v>
+        <v>213354</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>57724</v>
+        <v>57860</v>
       </c>
       <c r="C238" s="4">
-        <v>2313</v>
+        <v>2315</v>
       </c>
       <c r="D238" s="4">
-        <v>10903</v>
+        <v>10928</v>
       </c>
       <c r="E238" s="4">
-        <v>70940</v>
+        <v>71103</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>5600</v>
+        <v>5609</v>
       </c>
       <c r="C239" s="4">
         <v>232</v>
       </c>
       <c r="D239" s="4">
-        <v>2061</v>
+        <v>2067</v>
       </c>
       <c r="E239" s="4">
-        <v>7893</v>
+        <v>7908</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>53460</v>
+        <v>53513</v>
       </c>
       <c r="C240" s="4">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="D240" s="4">
-        <v>25820</v>
+        <v>25838</v>
       </c>
       <c r="E240" s="4">
-        <v>81277</v>
+        <v>81350</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>504354</v>
+        <v>504966</v>
       </c>
       <c r="C241" s="4">
-        <v>7057</v>
+        <v>7060</v>
       </c>
       <c r="D241" s="4">
-        <v>136061</v>
+        <v>136413</v>
       </c>
       <c r="E241" s="4">
-        <v>647472</v>
+        <v>648439</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>47150</v>
+        <v>47207</v>
       </c>
       <c r="C242" s="4">
-        <v>2527</v>
+        <v>2532</v>
       </c>
       <c r="D242" s="4">
-        <v>10058</v>
+        <v>10071</v>
       </c>
       <c r="E242" s="4">
-        <v>59735</v>
+        <v>59810</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,16 +5168,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>2335</v>
+        <v>2340</v>
       </c>
       <c r="C243" s="4">
         <v>503</v>
       </c>
       <c r="D243" s="4">
-        <v>4425</v>
+        <v>4431</v>
       </c>
       <c r="E243" s="4">
-        <v>7263</v>
+        <v>7274</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>147794</v>
+        <v>148017</v>
       </c>
       <c r="C244" s="4">
-        <v>10346</v>
+        <v>10391</v>
       </c>
       <c r="D244" s="4">
-        <v>64871</v>
+        <v>65514</v>
       </c>
       <c r="E244" s="4">
-        <v>223011</v>
+        <v>223922</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>17146</v>
+        <v>17182</v>
       </c>
       <c r="C245" s="4">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D245" s="4">
-        <v>23060</v>
+        <v>23428</v>
       </c>
       <c r="E245" s="4">
-        <v>41004</v>
+        <v>41409</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>45357</v>
+        <v>45447</v>
       </c>
       <c r="C246" s="4">
         <v>229</v>
       </c>
       <c r="D246" s="4">
-        <v>8134</v>
+        <v>8167</v>
       </c>
       <c r="E246" s="4">
-        <v>53720</v>
+        <v>53843</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>755300</v>
+        <v>756997</v>
       </c>
       <c r="C247" s="4">
-        <v>31588</v>
+        <v>31842</v>
       </c>
       <c r="D247" s="4">
-        <v>188432</v>
+        <v>189210</v>
       </c>
       <c r="E247" s="4">
-        <v>975320</v>
+        <v>978049</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>51843</v>
+        <v>51935</v>
       </c>
       <c r="C248" s="4">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="D248" s="4">
-        <v>19457</v>
+        <v>19512</v>
       </c>
       <c r="E248" s="4">
-        <v>72804</v>
+        <v>72954</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,16 +5270,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>1674</v>
+        <v>1682</v>
       </c>
       <c r="C249" s="4">
         <v>72</v>
       </c>
       <c r="D249" s="4">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="E249" s="4">
-        <v>2430</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>70869</v>
+        <v>70957</v>
       </c>
       <c r="C250" s="4">
-        <v>3922</v>
+        <v>3930</v>
       </c>
       <c r="D250" s="4">
-        <v>15326</v>
+        <v>15377</v>
       </c>
       <c r="E250" s="4">
-        <v>90117</v>
+        <v>90264</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>28071</v>
+        <v>28099</v>
       </c>
       <c r="C251" s="4">
-        <v>2312</v>
+        <v>2317</v>
       </c>
       <c r="D251" s="4">
-        <v>15636</v>
+        <v>15689</v>
       </c>
       <c r="E251" s="4">
-        <v>46019</v>
+        <v>46105</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,16 +5321,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2855</v>
+        <v>2862</v>
       </c>
       <c r="C252" s="4">
         <v>170</v>
       </c>
       <c r="D252" s="4">
-        <v>1852</v>
+        <v>1871</v>
       </c>
       <c r="E252" s="4">
-        <v>4877</v>
+        <v>4903</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>10373</v>
+        <v>10405</v>
       </c>
       <c r="C253" s="4">
         <v>684</v>
       </c>
       <c r="D253" s="4">
-        <v>5429</v>
+        <v>5446</v>
       </c>
       <c r="E253" s="4">
-        <v>16486</v>
+        <v>16535</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>18260</v>
+        <v>18274</v>
       </c>
       <c r="C254" s="4">
         <v>158</v>
       </c>
       <c r="D254" s="4">
-        <v>17404</v>
+        <v>17444</v>
       </c>
       <c r="E254" s="4">
-        <v>35822</v>
+        <v>35876</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>12753</v>
+        <v>12760</v>
       </c>
       <c r="C255" s="4">
         <v>270</v>
       </c>
       <c r="D255" s="4">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="E255" s="4">
-        <v>15602</v>
+        <v>15614</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>241152</v>
+        <v>242271</v>
       </c>
       <c r="C256" s="4">
-        <v>14359</v>
+        <v>14362</v>
       </c>
       <c r="D256" s="4">
-        <v>15851</v>
+        <v>15884</v>
       </c>
       <c r="E256" s="4">
-        <v>271362</v>
+        <v>272517</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>37441940</v>
+        <v>37515596</v>
       </c>
       <c r="C257" s="4">
-        <v>1668115</v>
+        <v>1671019</v>
       </c>
       <c r="D257" s="4">
-        <v>9405890</v>
+        <v>9443170</v>
       </c>
       <c r="E257" s="4">
-        <v>48515945</v>
+        <v>48629785</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
